--- a/output/2024/sector_totals_2024.xlsx
+++ b/output/2024/sector_totals_2024.xlsx
@@ -509,10 +509,10 @@
         <v>356.6164544411242</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>71.49989214802734</v>
       </c>
       <c r="G3" t="n">
-        <v>4.14080942050175</v>
+        <v>4.140809420501751</v>
       </c>
     </row>
     <row r="4">
@@ -834,7 +834,7 @@
         <v>6690.871137983765</v>
       </c>
       <c r="F16" t="n">
-        <v>1487.181164281496</v>
+        <v>1558.681056429523</v>
       </c>
       <c r="G16" t="n">
         <v>28.07940486639828</v>

--- a/output/2024/sector_totals_2024.xlsx
+++ b/output/2024/sector_totals_2024.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>94.41249001862033</v>
       </c>
       <c r="C9" t="n">
         <v>94.41249001862033</v>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>46.94126537280198</v>
       </c>
       <c r="C10" t="n">
         <v>46.94126537280198</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>329.2200721866216</v>
       </c>
       <c r="C11" t="n">
         <v>329.2200721866216</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4981.51542171326</v>
+        <v>5452.089249291304</v>
       </c>
       <c r="C16" t="n">
         <v>544.9352086054416</v>
